--- a/Mobile_checklist.xlsx
+++ b/Mobile_checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General checklist" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
   <si>
     <t>Testing sections</t>
   </si>
@@ -344,6 +344,48 @@
   </si>
   <si>
     <t>Bug report ID.85</t>
+  </si>
+  <si>
+    <t>1. Одиниці виміру розмірів в iOS - pt</t>
+  </si>
+  <si>
+    <t>1. Одиниці виміру розмірів в Android - dp</t>
+  </si>
+  <si>
+    <t>4. Написи виконані шрифтом San Francisco – системним шрифтом в iOS</t>
+  </si>
+  <si>
+    <t>Жест свайпа зліва-направо перемикає вкладки в Android</t>
+  </si>
+  <si>
+    <t>Жест свайпа зліва-направо повертає на попередній екран в iOS</t>
+  </si>
+  <si>
+    <t>Наявність смужки "Dock-панелі" знизу екрану при відкритому застосунку</t>
+  </si>
+  <si>
+    <t>3. Кнопка заклику до дії розташована у центрі панелі вкладок</t>
+  </si>
+  <si>
+    <t>Селектор вибору дат реалізований у вигляді прокручування грального автомата</t>
+  </si>
+  <si>
+    <t>Панель вкладок iOS реалізована у нижній частині екрану та налічує від 2 до 5 елементів</t>
+  </si>
+  <si>
+    <t>2. Проверка наличия панели Android Navigation Bar внизу экрана</t>
+  </si>
+  <si>
+    <t>3. Селектор выбора дат реализован в виде квадратного модального окна с расположением на нём всех дат текущего месяца, названием месяца и заголовком сверху в формате "день/месяц/год" отображающем выбранную дату</t>
+  </si>
+  <si>
+    <t>4. Кнопка призыва к действию расположена в правом нижнем углу над панелей навигации</t>
+  </si>
+  <si>
+    <t>5. Текст на кнопках написан в верхнем регистре</t>
+  </si>
+  <si>
+    <t>6. Написи виконані шрифтом Roboto – системним шрифтом в Android (або шрифтом Noto, якщо мова не підтримує Roboto)</t>
   </si>
 </sst>
 </file>
@@ -943,6 +985,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -952,108 +1081,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1071,7 +1106,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1360,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E51" sqref="E51:E62"/>
@@ -1371,8 +1406,8 @@
   <cols>
     <col min="1" max="1" width="5.28515625" style="47" customWidth="1"/>
     <col min="2" max="2" width="65.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="77" customWidth="1"/>
-    <col min="4" max="4" width="18" style="77" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="18" style="62" customWidth="1"/>
     <col min="5" max="5" width="58" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1397,12 +1432,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
@@ -1414,11 +1449,11 @@
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="61" t="s">
+      <c r="C3" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="70" t="s">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -1432,11 +1467,11 @@
       <c r="B4" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="62"/>
+      <c r="C4" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="71"/>
       <c r="AB4" t="s">
         <v>44</v>
       </c>
@@ -1448,11 +1483,11 @@
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="62"/>
+      <c r="C5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -1461,11 +1496,11 @@
       <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="62"/>
+      <c r="C6" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1474,11 +1509,11 @@
       <c r="B7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="62"/>
+      <c r="C7" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1487,11 +1522,11 @@
       <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="62"/>
+      <c r="C8" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -1500,13 +1535,13 @@
       <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
@@ -1515,11 +1550,11 @@
       <c r="B10" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="62"/>
+      <c r="C10" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -1528,11 +1563,11 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="62"/>
+      <c r="C11" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1541,11 +1576,11 @@
       <c r="B12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="62"/>
+      <c r="C12" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -1554,11 +1589,11 @@
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="62"/>
+      <c r="C13" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -1567,13 +1602,13 @@
       <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="62"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -1582,11 +1617,11 @@
       <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="62"/>
+      <c r="C15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -1595,11 +1630,11 @@
       <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="62"/>
+      <c r="C16" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -1608,11 +1643,11 @@
       <c r="B17" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="62"/>
+      <c r="C17" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -1621,11 +1656,11 @@
       <c r="B18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="62"/>
+      <c r="C18" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -1634,11 +1669,11 @@
       <c r="B19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="62"/>
+      <c r="C19" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -1647,11 +1682,11 @@
       <c r="B20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="62"/>
+      <c r="C20" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -1660,11 +1695,11 @@
       <c r="B21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="62"/>
+      <c r="C21" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
@@ -1673,11 +1708,11 @@
       <c r="B22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="62"/>
+      <c r="C22" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
@@ -1686,11 +1721,11 @@
       <c r="B23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="62"/>
+      <c r="C23" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
@@ -1699,11 +1734,11 @@
       <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="62"/>
+      <c r="C24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
@@ -1712,11 +1747,11 @@
       <c r="B25" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="62"/>
+      <c r="C25" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
@@ -1725,13 +1760,13 @@
       <c r="B26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
@@ -1740,11 +1775,11 @@
       <c r="B27" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="62"/>
+      <c r="C27" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
@@ -1753,13 +1788,13 @@
       <c r="B28" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
@@ -1768,11 +1803,11 @@
       <c r="B29" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="62"/>
+      <c r="C29" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
@@ -1781,11 +1816,11 @@
       <c r="B30" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="62"/>
+      <c r="C30" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
@@ -1794,22 +1829,22 @@
       <c r="B31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="71"/>
-      <c r="E31" s="63"/>
+      <c r="C31" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="72"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
@@ -1818,11 +1853,11 @@
       <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="65" t="s">
+      <c r="C33" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="74" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1833,11 +1868,11 @@
       <c r="B34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="66"/>
+      <c r="C34" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="53"/>
+      <c r="E34" s="75"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -1846,11 +1881,11 @@
       <c r="B35" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="66"/>
+      <c r="C35" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="53"/>
+      <c r="E35" s="75"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
@@ -1859,13 +1894,13 @@
       <c r="B36" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="75"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -1874,11 +1909,11 @@
       <c r="B37" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="66"/>
+      <c r="C37" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="53"/>
+      <c r="E37" s="75"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
@@ -1887,22 +1922,22 @@
       <c r="B38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="66"/>
+      <c r="C38" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="64"/>
+      <c r="E38" s="75"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>3</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -1911,11 +1946,11 @@
       <c r="B40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="59" t="s">
+      <c r="C40" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="77" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1926,11 +1961,11 @@
       <c r="B41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="59"/>
+      <c r="C41" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="59"/>
+      <c r="E41" s="77"/>
     </row>
     <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
@@ -1939,22 +1974,22 @@
       <c r="B42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="60"/>
+      <c r="C42" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="78"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>4</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,11 +1999,11 @@
       <c r="B44" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="52" t="s">
+      <c r="C44" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="81" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1979,11 +2014,11 @@
       <c r="B45" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="53"/>
+      <c r="C45" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="82"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
@@ -1992,11 +2027,11 @@
       <c r="B46" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="74"/>
-      <c r="E46" s="53"/>
+      <c r="C46" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="82"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
@@ -2005,11 +2040,11 @@
       <c r="B47" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="53"/>
+      <c r="C47" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="59"/>
+      <c r="E47" s="82"/>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
@@ -2018,11 +2053,11 @@
       <c r="B48" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="53"/>
+      <c r="C48" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="59"/>
+      <c r="E48" s="82"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
@@ -2031,22 +2066,22 @@
       <c r="B49" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="54"/>
+      <c r="C49" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="60"/>
+      <c r="E49" s="83"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
@@ -2055,11 +2090,11 @@
       <c r="B51" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="73"/>
-      <c r="E51" s="52" t="s">
+      <c r="C51" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="E51" s="81" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2070,13 +2105,13 @@
       <c r="B52" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="68" t="s">
+      <c r="D52" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="53"/>
+      <c r="E52" s="82"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
@@ -2085,11 +2120,11 @@
       <c r="B53" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="53"/>
+      <c r="C53" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="59"/>
+      <c r="E53" s="82"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
@@ -2098,11 +2133,11 @@
       <c r="B54" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="53"/>
+      <c r="C54" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="82"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
@@ -2111,11 +2146,11 @@
       <c r="B55" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="74"/>
-      <c r="E55" s="53"/>
+      <c r="C55" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="59"/>
+      <c r="E55" s="82"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
@@ -2124,11 +2159,11 @@
       <c r="B56" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="53"/>
+      <c r="C56" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="82"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
@@ -2137,11 +2172,11 @@
       <c r="B57" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="74"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="82"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
@@ -2150,11 +2185,11 @@
       <c r="B58" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="74"/>
-      <c r="E58" s="53"/>
+      <c r="C58" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="59"/>
+      <c r="E58" s="82"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
@@ -2163,11 +2198,11 @@
       <c r="B59" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="74"/>
-      <c r="E59" s="53"/>
+      <c r="C59" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="59"/>
+      <c r="E59" s="82"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
@@ -2176,11 +2211,11 @@
       <c r="B60" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="74"/>
-      <c r="E60" s="53"/>
+      <c r="C60" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="59"/>
+      <c r="E60" s="82"/>
     </row>
     <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
@@ -2189,11 +2224,11 @@
       <c r="B61" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D61" s="74"/>
-      <c r="E61" s="53"/>
+      <c r="C61" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="82"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
@@ -2202,22 +2237,22 @@
       <c r="B62" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="75"/>
-      <c r="E62" s="54"/>
+      <c r="C62" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>6</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="57"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="84"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -2226,11 +2261,11 @@
       <c r="B64" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="73"/>
-      <c r="E64" s="52" t="s">
+      <c r="C64" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" s="58"/>
+      <c r="E64" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2241,11 +2276,11 @@
       <c r="B65" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="53"/>
+      <c r="C65" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="59"/>
+      <c r="E65" s="82"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
@@ -2254,11 +2289,11 @@
       <c r="B66" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="74"/>
-      <c r="E66" s="53"/>
+      <c r="C66" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="59"/>
+      <c r="E66" s="82"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
@@ -2267,13 +2302,13 @@
       <c r="B67" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="81" t="s">
+      <c r="C67" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D67" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="53"/>
+      <c r="E67" s="82"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
@@ -2282,11 +2317,11 @@
       <c r="B68" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="74"/>
-      <c r="E68" s="53"/>
+      <c r="C68" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="59"/>
+      <c r="E68" s="82"/>
     </row>
     <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
@@ -2295,22 +2330,22 @@
       <c r="B69" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="75"/>
-      <c r="E69" s="54"/>
+      <c r="C69" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="83"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>7</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="84"/>
     </row>
     <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -2319,10 +2354,10 @@
       <c r="B71" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C71" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" s="76"/>
+      <c r="C71" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="61"/>
       <c r="E71" s="50" t="s">
         <v>79</v>
       </c>
@@ -2331,12 +2366,12 @@
       <c r="A72" s="30">
         <v>8</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="57"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="84"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -2345,11 +2380,11 @@
       <c r="B73" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="D73" s="73"/>
-      <c r="E73" s="52" t="s">
+      <c r="C73" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="58"/>
+      <c r="E73" s="81" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2360,11 +2395,11 @@
       <c r="B74" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="53"/>
+      <c r="C74" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="59"/>
+      <c r="E74" s="82"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
@@ -2373,11 +2408,11 @@
       <c r="B75" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C75" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="74"/>
-      <c r="E75" s="53"/>
+      <c r="C75" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" s="59"/>
+      <c r="E75" s="82"/>
     </row>
     <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2386,19 +2421,14 @@
       <c r="B76" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="75"/>
-      <c r="E76" s="54"/>
+      <c r="C76" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="60"/>
+      <c r="E76" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="E44:E49"/>
@@ -2409,6 +2439,11 @@
     <mergeCell ref="E64:E69"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B72:E72"/>
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76">
@@ -2421,13 +2456,13 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{8399FD4A-AD5F-4DFC-94CC-FC33406C1E8A}">
-            <xm:f>NOT(ISERROR(SEARCH($AB$2,C3)))</xm:f>
-            <xm:f>$AB$2</xm:f>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A226FC6A-C892-4259-85EC-3F508ECCCE46}">
+            <xm:f>NOT(ISERROR(SEARCH($AB$4,C3)))</xm:f>
+            <xm:f>$AB$4</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor rgb="FFFF9393"/>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2443,13 +2478,13 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{A226FC6A-C892-4259-85EC-3F508ECCCE46}">
-            <xm:f>NOT(ISERROR(SEARCH($AB$4,C3)))</xm:f>
-            <xm:f>$AB$4</xm:f>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{8399FD4A-AD5F-4DFC-94CC-FC33406C1E8A}">
+            <xm:f>NOT(ISERROR(SEARCH($AB$2,C3)))</xm:f>
+            <xm:f>$AB$2</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                  <bgColor rgb="FFFF9393"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -2464,28 +2499,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mobile_checklist.xlsx
+++ b/Mobile_checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General checklist" sheetId="1" r:id="rId1"/>
@@ -352,27 +352,6 @@
     <t>1. Одиниці виміру розмірів в Android - dp</t>
   </si>
   <si>
-    <t>4. Написи виконані шрифтом San Francisco – системним шрифтом в iOS</t>
-  </si>
-  <si>
-    <t>Жест свайпа зліва-направо перемикає вкладки в Android</t>
-  </si>
-  <si>
-    <t>Жест свайпа зліва-направо повертає на попередній екран в iOS</t>
-  </si>
-  <si>
-    <t>Наявність смужки "Dock-панелі" знизу екрану при відкритому застосунку</t>
-  </si>
-  <si>
-    <t>3. Кнопка заклику до дії розташована у центрі панелі вкладок</t>
-  </si>
-  <si>
-    <t>Селектор вибору дат реалізований у вигляді прокручування грального автомата</t>
-  </si>
-  <si>
-    <t>Панель вкладок iOS реалізована у нижній частині екрану та налічує від 2 до 5 елементів</t>
-  </si>
-  <si>
     <t>2. Проверка наличия панели Android Navigation Bar внизу экрана</t>
   </si>
   <si>
@@ -386,6 +365,27 @@
   </si>
   <si>
     <t>6. Написи виконані шрифтом Roboto – системним шрифтом в Android (або шрифтом Noto, якщо мова не підтримує Roboto)</t>
+  </si>
+  <si>
+    <t>7. Жест свайпа зліва-направо перемикає вкладки в Android</t>
+  </si>
+  <si>
+    <t>2. Панель вкладок iOS реалізована у нижній частині екрану та налічує від 2 до 5 елементів</t>
+  </si>
+  <si>
+    <t>3. Селектор вибору дат реалізований у вигляді прокручування грального автомата</t>
+  </si>
+  <si>
+    <t>4. Кнопка заклику до дії розташована у центрі панелі вкладок</t>
+  </si>
+  <si>
+    <t>5. Написи виконані шрифтом San Francisco – системним шрифтом в iOS</t>
+  </si>
+  <si>
+    <t>6. Жест свайпа зліва-направо повертає на попередній екран в iOS</t>
+  </si>
+  <si>
+    <t>7. Наявність смужки "Dock-панелі" знизу екрану при відкритому застосунку</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1039,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,30 +1082,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1432,12 +1432,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="52"/>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="78" t="s">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -1471,7 +1471,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="53"/>
-      <c r="E4" s="71"/>
+      <c r="E4" s="79"/>
       <c r="AB4" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="53"/>
-      <c r="E5" s="71"/>
+      <c r="E5" s="79"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -1500,7 +1500,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="54"/>
-      <c r="E6" s="71"/>
+      <c r="E6" s="79"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1513,7 +1513,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="71"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1526,7 +1526,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="53"/>
-      <c r="E8" s="71"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -1541,7 +1541,7 @@
       <c r="D9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="71"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
@@ -1554,7 +1554,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="79"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -1567,7 +1567,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="53"/>
-      <c r="E11" s="71"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1580,7 +1580,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="53"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="79"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -1593,7 +1593,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="53"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -1608,7 +1608,7 @@
       <c r="D14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="79"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -1621,7 +1621,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="63"/>
-      <c r="E15" s="71"/>
+      <c r="E15" s="79"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -1634,7 +1634,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="63"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="79"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -1647,7 +1647,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="54"/>
-      <c r="E17" s="71"/>
+      <c r="E17" s="79"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -1660,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="53"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="79"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -1673,7 +1673,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="53"/>
-      <c r="E19" s="71"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -1686,7 +1686,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="79"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -1699,7 +1699,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="71"/>
+      <c r="E21" s="79"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
@@ -1712,7 +1712,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="63"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="79"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
@@ -1725,7 +1725,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="54"/>
-      <c r="E23" s="71"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
@@ -1738,7 +1738,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="71"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
@@ -1751,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="53"/>
-      <c r="E25" s="71"/>
+      <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
@@ -1766,7 +1766,7 @@
       <c r="D26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
@@ -1779,7 +1779,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="71"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
@@ -1794,7 +1794,7 @@
       <c r="D28" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="71"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
@@ -1807,7 +1807,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="53"/>
-      <c r="E29" s="71"/>
+      <c r="E29" s="79"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
@@ -1820,7 +1820,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="79"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
@@ -1833,18 +1833,18 @@
         <v>43</v>
       </c>
       <c r="D31" s="56"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="80"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
@@ -1857,7 +1857,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="82" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="53"/>
-      <c r="E34" s="75"/>
+      <c r="E34" s="83"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -1885,7 +1885,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="53"/>
-      <c r="E35" s="75"/>
+      <c r="E35" s="83"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
@@ -1900,7 +1900,7 @@
       <c r="D36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -1913,7 +1913,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="53"/>
-      <c r="E37" s="75"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
@@ -1926,18 +1926,18 @@
         <v>43</v>
       </c>
       <c r="D38" s="64"/>
-      <c r="E38" s="75"/>
+      <c r="E38" s="83"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>3</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -1950,7 +1950,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="58"/>
-      <c r="E40" s="77" t="s">
+      <c r="E40" s="70" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="E41" s="77"/>
+      <c r="E41" s="70"/>
     </row>
     <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
@@ -1978,18 +1978,18 @@
         <v>43</v>
       </c>
       <c r="D42" s="60"/>
-      <c r="E42" s="78"/>
+      <c r="E42" s="71"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>4</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="58"/>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="74" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="59"/>
-      <c r="E45" s="82"/>
+      <c r="E45" s="75"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
@@ -2031,7 +2031,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="59"/>
-      <c r="E46" s="82"/>
+      <c r="E46" s="75"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
@@ -2044,7 +2044,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="59"/>
-      <c r="E47" s="82"/>
+      <c r="E47" s="75"/>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
@@ -2057,7 +2057,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="59"/>
-      <c r="E48" s="82"/>
+      <c r="E48" s="75"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
@@ -2070,18 +2070,18 @@
         <v>43</v>
       </c>
       <c r="D49" s="60"/>
-      <c r="E49" s="83"/>
+      <c r="E49" s="76"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="84"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="77"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
@@ -2094,7 +2094,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="58"/>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="74" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       <c r="D52" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="82"/>
+      <c r="E52" s="75"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
@@ -2124,7 +2124,7 @@
         <v>43</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="82"/>
+      <c r="E53" s="75"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
@@ -2137,7 +2137,7 @@
         <v>43</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="82"/>
+      <c r="E54" s="75"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
@@ -2150,7 +2150,7 @@
         <v>43</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="82"/>
+      <c r="E55" s="75"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
@@ -2163,7 +2163,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="82"/>
+      <c r="E56" s="75"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
@@ -2176,7 +2176,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="59"/>
-      <c r="E57" s="82"/>
+      <c r="E57" s="75"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
@@ -2189,7 +2189,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="59"/>
-      <c r="E58" s="82"/>
+      <c r="E58" s="75"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
@@ -2202,7 +2202,7 @@
         <v>43</v>
       </c>
       <c r="D59" s="59"/>
-      <c r="E59" s="82"/>
+      <c r="E59" s="75"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
@@ -2215,7 +2215,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="59"/>
-      <c r="E60" s="82"/>
+      <c r="E60" s="75"/>
     </row>
     <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
@@ -2228,7 +2228,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="59"/>
-      <c r="E61" s="82"/>
+      <c r="E61" s="75"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
@@ -2241,18 +2241,18 @@
         <v>43</v>
       </c>
       <c r="D62" s="60"/>
-      <c r="E62" s="83"/>
+      <c r="E62" s="76"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>6</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="84"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="77"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -2265,7 +2265,7 @@
         <v>43</v>
       </c>
       <c r="D64" s="58"/>
-      <c r="E64" s="81" t="s">
+      <c r="E64" s="74" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
         <v>43</v>
       </c>
       <c r="D65" s="59"/>
-      <c r="E65" s="82"/>
+      <c r="E65" s="75"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
@@ -2293,7 +2293,7 @@
         <v>43</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="82"/>
+      <c r="E66" s="75"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
@@ -2308,7 +2308,7 @@
       <c r="D67" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="82"/>
+      <c r="E67" s="75"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
@@ -2321,7 +2321,7 @@
         <v>43</v>
       </c>
       <c r="D68" s="59"/>
-      <c r="E68" s="82"/>
+      <c r="E68" s="75"/>
     </row>
     <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
@@ -2334,18 +2334,18 @@
         <v>43</v>
       </c>
       <c r="D69" s="60"/>
-      <c r="E69" s="83"/>
+      <c r="E69" s="76"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>7</v>
       </c>
-      <c r="B70" s="80" t="s">
+      <c r="B70" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="84"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="77"/>
     </row>
     <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -2366,12 +2366,12 @@
       <c r="A72" s="30">
         <v>8</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="84"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="77"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -2384,7 +2384,7 @@
         <v>43</v>
       </c>
       <c r="D73" s="58"/>
-      <c r="E73" s="81" t="s">
+      <c r="E73" s="74" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
         <v>43</v>
       </c>
       <c r="D74" s="59"/>
-      <c r="E74" s="82"/>
+      <c r="E74" s="75"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
@@ -2412,7 +2412,7 @@
         <v>43</v>
       </c>
       <c r="D75" s="59"/>
-      <c r="E75" s="82"/>
+      <c r="E75" s="75"/>
     </row>
     <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2425,10 +2425,15 @@
         <v>43</v>
       </c>
       <c r="D76" s="60"/>
-      <c r="E76" s="83"/>
+      <c r="E76" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="E44:E49"/>
@@ -2439,11 +2444,6 @@
     <mergeCell ref="E64:E69"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B72:E72"/>
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76">
@@ -2501,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,27 +2519,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2551,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,32 +2564,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Mobile_checklist.xlsx
+++ b/Mobile_checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9165" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General checklist" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
   <si>
     <t>Testing sections</t>
   </si>
@@ -352,12 +352,6 @@
     <t>1. Одиниці виміру розмірів в Android - dp</t>
   </si>
   <si>
-    <t>2. Проверка наличия панели Android Navigation Bar внизу экрана</t>
-  </si>
-  <si>
-    <t>3. Селектор выбора дат реализован в виде квадратного модального окна с расположением на нём всех дат текущего месяца, названием месяца и заголовком сверху в формате "день/месяц/год" отображающем выбранную дату</t>
-  </si>
-  <si>
     <t>4. Кнопка призыва к действию расположена в правом нижнем углу над панелей навигации</t>
   </si>
   <si>
@@ -373,9 +367,6 @@
     <t>2. Панель вкладок iOS реалізована у нижній частині екрану та налічує від 2 до 5 елементів</t>
   </si>
   <si>
-    <t>3. Селектор вибору дат реалізований у вигляді прокручування грального автомата</t>
-  </si>
-  <si>
     <t>4. Кнопка заклику до дії розташована у центрі панелі вкладок</t>
   </si>
   <si>
@@ -386,6 +377,45 @@
   </si>
   <si>
     <t>7. Наявність смужки "Dock-панелі" знизу екрану при відкритому застосунку</t>
+  </si>
+  <si>
+    <t>Іконка прелоадера зміщує контент вниз при рефреші сторінки жестом swipe down</t>
+  </si>
+  <si>
+    <t>Іконка прелоадера виїжджає поверх контенту при рефреші сторінки жестом swipe down</t>
+  </si>
+  <si>
+    <t>Іконка "Три крапки" відображає крапки в горизонтальному положенні</t>
+  </si>
+  <si>
+    <t>Іконка "Три крапки" відображає крапки в вертикальному положенні</t>
+  </si>
+  <si>
+    <t>Стрілка "Назад" повинна мати лінію посередині</t>
+  </si>
+  <si>
+    <t>Стрілка "Назад" в Navigation Bar має форму кутової дужки і не має лінії посередині</t>
+  </si>
+  <si>
+    <t>Заголовок в Top App Bar відображається посередині</t>
+  </si>
+  <si>
+    <t>Заголовок в Navigation Bar відображається посередині</t>
+  </si>
+  <si>
+    <t>Controls мають класичний вигляд: для radiobutton - кружечки з обведенням, для checkbox - прапорець з заливкою в квадраті. Є можливість зробити батьківський  checkbox для одночасного вибору всіх елементів</t>
+  </si>
+  <si>
+    <t>Controls мають вигляд прапорців (без заливки фону) як для radiobutton, так і для checkbox</t>
+  </si>
+  <si>
+    <t>3. Селектор вибору дат реалізований у вигляді прокручування барабану</t>
+  </si>
+  <si>
+    <t>3. Селектор вибору дат реалізований в вигляді класичного календаря з розташуванням на ньому всіх дат поточного місяца, назвою місяця і заголовком зверху в форматі "день/місяць/рік". Повинна бути можливість вводу дати з допомогою Input Field-а</t>
+  </si>
+  <si>
+    <t>2. Перевірка наявності панелі Android Navigation Bar внизу екрана</t>
   </si>
 </sst>
 </file>
@@ -1039,6 +1069,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1061,27 +1112,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1432,12 +1462,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
@@ -1453,7 +1483,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="52"/>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="70" t="s">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -1471,7 +1501,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="53"/>
-      <c r="E4" s="79"/>
+      <c r="E4" s="71"/>
       <c r="AB4" t="s">
         <v>44</v>
       </c>
@@ -1487,7 +1517,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="53"/>
-      <c r="E5" s="79"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -1500,7 +1530,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="54"/>
-      <c r="E6" s="79"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1513,7 +1543,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="79"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1526,7 +1556,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="53"/>
-      <c r="E8" s="79"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -1541,7 +1571,7 @@
       <c r="D9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
@@ -1554,7 +1584,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="79"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -1567,7 +1597,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="53"/>
-      <c r="E11" s="79"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1580,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="53"/>
-      <c r="E12" s="79"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -1593,7 +1623,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="53"/>
-      <c r="E13" s="79"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -1608,7 +1638,7 @@
       <c r="D14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="79"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -1621,7 +1651,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="63"/>
-      <c r="E15" s="79"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -1634,7 +1664,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="63"/>
-      <c r="E16" s="79"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -1647,7 +1677,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="54"/>
-      <c r="E17" s="79"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -1660,7 +1690,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="53"/>
-      <c r="E18" s="79"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -1673,7 +1703,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="53"/>
-      <c r="E19" s="79"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -1686,7 +1716,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53"/>
-      <c r="E20" s="79"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -1699,7 +1729,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="79"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
@@ -1712,7 +1742,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="63"/>
-      <c r="E22" s="79"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
@@ -1725,7 +1755,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="54"/>
-      <c r="E23" s="79"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
@@ -1738,7 +1768,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="79"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
@@ -1751,7 +1781,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="53"/>
-      <c r="E25" s="79"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
@@ -1766,7 +1796,7 @@
       <c r="D26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="79"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
@@ -1779,7 +1809,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="79"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
@@ -1794,7 +1824,7 @@
       <c r="D28" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
@@ -1807,7 +1837,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="53"/>
-      <c r="E29" s="79"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
@@ -1820,7 +1850,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="79"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
@@ -1833,18 +1863,18 @@
         <v>43</v>
       </c>
       <c r="D31" s="56"/>
-      <c r="E31" s="80"/>
+      <c r="E31" s="72"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
@@ -1857,7 +1887,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="74" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1872,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="53"/>
-      <c r="E34" s="83"/>
+      <c r="E34" s="75"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -1885,7 +1915,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="53"/>
-      <c r="E35" s="83"/>
+      <c r="E35" s="75"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
@@ -1900,7 +1930,7 @@
       <c r="D36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="75"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -1913,7 +1943,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="53"/>
-      <c r="E37" s="83"/>
+      <c r="E37" s="75"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
@@ -1926,18 +1956,18 @@
         <v>43</v>
       </c>
       <c r="D38" s="64"/>
-      <c r="E38" s="83"/>
+      <c r="E38" s="75"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>3</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -1950,7 +1980,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="58"/>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="77" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1965,7 +1995,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="E41" s="70"/>
+      <c r="E41" s="77"/>
     </row>
     <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
@@ -1978,18 +2008,18 @@
         <v>43</v>
       </c>
       <c r="D42" s="60"/>
-      <c r="E42" s="71"/>
+      <c r="E42" s="78"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>4</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,7 +2033,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="58"/>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="81" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2018,7 +2048,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="59"/>
-      <c r="E45" s="75"/>
+      <c r="E45" s="82"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
@@ -2031,7 +2061,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="59"/>
-      <c r="E46" s="75"/>
+      <c r="E46" s="82"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
@@ -2044,7 +2074,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="59"/>
-      <c r="E47" s="75"/>
+      <c r="E47" s="82"/>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
@@ -2057,7 +2087,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="59"/>
-      <c r="E48" s="75"/>
+      <c r="E48" s="82"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
@@ -2070,18 +2100,18 @@
         <v>43</v>
       </c>
       <c r="D49" s="60"/>
-      <c r="E49" s="76"/>
+      <c r="E49" s="83"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="77"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
@@ -2094,7 +2124,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="58"/>
-      <c r="E51" s="74" t="s">
+      <c r="E51" s="81" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2111,7 +2141,7 @@
       <c r="D52" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="75"/>
+      <c r="E52" s="82"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
@@ -2124,7 +2154,7 @@
         <v>43</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="75"/>
+      <c r="E53" s="82"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
@@ -2137,7 +2167,7 @@
         <v>43</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="75"/>
+      <c r="E54" s="82"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
@@ -2150,7 +2180,7 @@
         <v>43</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="75"/>
+      <c r="E55" s="82"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
@@ -2163,7 +2193,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="75"/>
+      <c r="E56" s="82"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
@@ -2176,7 +2206,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="59"/>
-      <c r="E57" s="75"/>
+      <c r="E57" s="82"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
@@ -2189,7 +2219,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="59"/>
-      <c r="E58" s="75"/>
+      <c r="E58" s="82"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
@@ -2202,7 +2232,7 @@
         <v>43</v>
       </c>
       <c r="D59" s="59"/>
-      <c r="E59" s="75"/>
+      <c r="E59" s="82"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
@@ -2215,7 +2245,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="59"/>
-      <c r="E60" s="75"/>
+      <c r="E60" s="82"/>
     </row>
     <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
@@ -2228,7 +2258,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="59"/>
-      <c r="E61" s="75"/>
+      <c r="E61" s="82"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
@@ -2241,18 +2271,18 @@
         <v>43</v>
       </c>
       <c r="D62" s="60"/>
-      <c r="E62" s="76"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>6</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="77"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="84"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -2265,7 +2295,7 @@
         <v>43</v>
       </c>
       <c r="D64" s="58"/>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2280,7 +2310,7 @@
         <v>43</v>
       </c>
       <c r="D65" s="59"/>
-      <c r="E65" s="75"/>
+      <c r="E65" s="82"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
@@ -2293,7 +2323,7 @@
         <v>43</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="75"/>
+      <c r="E66" s="82"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
@@ -2308,7 +2338,7 @@
       <c r="D67" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="75"/>
+      <c r="E67" s="82"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
@@ -2321,7 +2351,7 @@
         <v>43</v>
       </c>
       <c r="D68" s="59"/>
-      <c r="E68" s="75"/>
+      <c r="E68" s="82"/>
     </row>
     <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
@@ -2334,18 +2364,18 @@
         <v>43</v>
       </c>
       <c r="D69" s="60"/>
-      <c r="E69" s="76"/>
+      <c r="E69" s="83"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>7</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="77"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="84"/>
     </row>
     <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -2366,12 +2396,12 @@
       <c r="A72" s="30">
         <v>8</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="77"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="84"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -2384,7 +2414,7 @@
         <v>43</v>
       </c>
       <c r="D73" s="58"/>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="81" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2399,7 +2429,7 @@
         <v>43</v>
       </c>
       <c r="D74" s="59"/>
-      <c r="E74" s="75"/>
+      <c r="E74" s="82"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
@@ -2412,7 +2442,7 @@
         <v>43</v>
       </c>
       <c r="D75" s="59"/>
-      <c r="E75" s="75"/>
+      <c r="E75" s="82"/>
     </row>
     <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2425,15 +2455,10 @@
         <v>43</v>
       </c>
       <c r="D76" s="60"/>
-      <c r="E76" s="76"/>
+      <c r="E76" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="E44:E49"/>
@@ -2444,6 +2469,11 @@
     <mergeCell ref="E64:E69"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B72:E72"/>
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76">
@@ -2499,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,32 +2544,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2549,10 +2604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,32 +2619,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Mobile_checklist.xlsx
+++ b/Mobile_checklist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="136">
   <si>
     <t>Testing sections</t>
   </si>
@@ -346,21 +346,6 @@
     <t>Bug report ID.85</t>
   </si>
   <si>
-    <t>1. Одиниці виміру розмірів в iOS - pt</t>
-  </si>
-  <si>
-    <t>1. Одиниці виміру розмірів в Android - dp</t>
-  </si>
-  <si>
-    <t>4. Кнопка призыва к действию расположена в правом нижнем углу над панелей навигации</t>
-  </si>
-  <si>
-    <t>5. Текст на кнопках написан в верхнем регистре</t>
-  </si>
-  <si>
-    <t>6. Написи виконані шрифтом Roboto – системним шрифтом в Android (або шрифтом Noto, якщо мова не підтримує Roboto)</t>
-  </si>
-  <si>
     <t>7. Жест свайпа зліва-направо перемикає вкладки в Android</t>
   </si>
   <si>
@@ -370,45 +355,12 @@
     <t>4. Кнопка заклику до дії розташована у центрі панелі вкладок</t>
   </si>
   <si>
-    <t>5. Написи виконані шрифтом San Francisco – системним шрифтом в iOS</t>
-  </si>
-  <si>
     <t>6. Жест свайпа зліва-направо повертає на попередній екран в iOS</t>
   </si>
   <si>
     <t>7. Наявність смужки "Dock-панелі" знизу екрану при відкритому застосунку</t>
   </si>
   <si>
-    <t>Іконка прелоадера зміщує контент вниз при рефреші сторінки жестом swipe down</t>
-  </si>
-  <si>
-    <t>Іконка прелоадера виїжджає поверх контенту при рефреші сторінки жестом swipe down</t>
-  </si>
-  <si>
-    <t>Іконка "Три крапки" відображає крапки в горизонтальному положенні</t>
-  </si>
-  <si>
-    <t>Іконка "Три крапки" відображає крапки в вертикальному положенні</t>
-  </si>
-  <si>
-    <t>Стрілка "Назад" повинна мати лінію посередині</t>
-  </si>
-  <si>
-    <t>Стрілка "Назад" в Navigation Bar має форму кутової дужки і не має лінії посередині</t>
-  </si>
-  <si>
-    <t>Заголовок в Top App Bar відображається посередині</t>
-  </si>
-  <si>
-    <t>Заголовок в Navigation Bar відображається посередині</t>
-  </si>
-  <si>
-    <t>Controls мають класичний вигляд: для radiobutton - кружечки з обведенням, для checkbox - прапорець з заливкою в квадраті. Є можливість зробити батьківський  checkbox для одночасного вибору всіх елементів</t>
-  </si>
-  <si>
-    <t>Controls мають вигляд прапорців (без заливки фону) як для radiobutton, так і для checkbox</t>
-  </si>
-  <si>
     <t>3. Селектор вибору дат реалізований у вигляді прокручування барабану</t>
   </si>
   <si>
@@ -416,6 +368,72 @@
   </si>
   <si>
     <t>2. Перевірка наявності панелі Android Navigation Bar внизу екрана</t>
+  </si>
+  <si>
+    <t>4. Кнопка заклику до дії розташована в нижньому правому куті над панелей навігації.</t>
+  </si>
+  <si>
+    <t>5. Текст на кнопках написаний у верхньому регістрі</t>
+  </si>
+  <si>
+    <t>6. Написи виконані шрифтом Roboto — системним шрифтом в Android (або шрифтом Noto, якщо мова не підтримує Roboto)</t>
+  </si>
+  <si>
+    <t>1. Одиниці виміру розмірів в Android — dp</t>
+  </si>
+  <si>
+    <t>1. Одиниці виміру розмірів в iOS — pt</t>
+  </si>
+  <si>
+    <t>5. Написи виконані шрифтом San Francisco — системним шрифтом в iOS</t>
+  </si>
+  <si>
+    <t>8. Іконка прелоадера зміщує контент вниз при рефреші сторінки жестом swipe down</t>
+  </si>
+  <si>
+    <t>9. Іконка "Три крапки" відображає крапки в горизонтальному положенні</t>
+  </si>
+  <si>
+    <t>10. Стрілка "Назад" в Navigation Bar має форму кутової дужки і не має лінії посередині</t>
+  </si>
+  <si>
+    <t>11. Заголовок в Navigation Bar відображається посередині</t>
+  </si>
+  <si>
+    <t>12. Controls мають вигляд прапорців (без заливки фону) як для radiobutton, так і для checkbox</t>
+  </si>
+  <si>
+    <t>13. Мінімальна зона натискання в iOS — 44 x 44 pt</t>
+  </si>
+  <si>
+    <t>14. Бокові відступи мають бути кратні 8 pt</t>
+  </si>
+  <si>
+    <t>15. Відсутні Page Controls для перегляду на якій із сторінок знаходиться користувач</t>
+  </si>
+  <si>
+    <t>15. Має бути Page Control для перегляду на якій із сторінок знаходиться користувач</t>
+  </si>
+  <si>
+    <t>8. Іконка прелоадера виїжджає поверх контенту при рефреші сторінки жестом swipe down</t>
+  </si>
+  <si>
+    <t>9. Іконка "Три крапки" відображає крапки в вертикальному положенні</t>
+  </si>
+  <si>
+    <t>10. Стрілка "Назад" повинна мати лінію посередині</t>
+  </si>
+  <si>
+    <t>11. Заголовок в Top App Bar відображається посередині</t>
+  </si>
+  <si>
+    <t>12. Controls мають класичний вигляд: для radiobutton — кружечки з обведенням, для checkbox — прапорець з заливкою в квадраті. Є можливість зробити батьківський  checkbox для одночасного вибору всіх елементів</t>
+  </si>
+  <si>
+    <t>13. Мінімальна зона натискання в Android — 48 x 48 dp</t>
+  </si>
+  <si>
+    <t>14. Верхньорівнева навігація відбувається за допомогою Navigation Drawer через бургер-меню</t>
   </si>
 </sst>
 </file>
@@ -1069,6 +1087,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,30 +1130,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1462,12 +1480,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="52"/>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="78" t="s">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -1501,7 +1519,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="53"/>
-      <c r="E4" s="71"/>
+      <c r="E4" s="79"/>
       <c r="AB4" t="s">
         <v>44</v>
       </c>
@@ -1517,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="53"/>
-      <c r="E5" s="71"/>
+      <c r="E5" s="79"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -1530,7 +1548,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="54"/>
-      <c r="E6" s="71"/>
+      <c r="E6" s="79"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1543,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="71"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1556,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="53"/>
-      <c r="E8" s="71"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -1571,7 +1589,7 @@
       <c r="D9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="71"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
@@ -1584,7 +1602,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="79"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -1597,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="53"/>
-      <c r="E11" s="71"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1610,7 +1628,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="53"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="79"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -1623,7 +1641,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="53"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -1638,7 +1656,7 @@
       <c r="D14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="79"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -1651,7 +1669,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="63"/>
-      <c r="E15" s="71"/>
+      <c r="E15" s="79"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -1664,7 +1682,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="63"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="79"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -1677,7 +1695,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="54"/>
-      <c r="E17" s="71"/>
+      <c r="E17" s="79"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -1690,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="53"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="79"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -1703,7 +1721,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="53"/>
-      <c r="E19" s="71"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -1716,7 +1734,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="79"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -1729,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="71"/>
+      <c r="E21" s="79"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
@@ -1742,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="63"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="79"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
@@ -1755,7 +1773,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="54"/>
-      <c r="E23" s="71"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
@@ -1768,7 +1786,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="71"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
@@ -1781,7 +1799,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="53"/>
-      <c r="E25" s="71"/>
+      <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
@@ -1796,7 +1814,7 @@
       <c r="D26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
@@ -1809,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="71"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
@@ -1824,7 +1842,7 @@
       <c r="D28" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="71"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
@@ -1837,7 +1855,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="53"/>
-      <c r="E29" s="71"/>
+      <c r="E29" s="79"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
@@ -1850,7 +1868,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="79"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
@@ -1863,18 +1881,18 @@
         <v>43</v>
       </c>
       <c r="D31" s="56"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="80"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
@@ -1887,7 +1905,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="82" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1902,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="53"/>
-      <c r="E34" s="75"/>
+      <c r="E34" s="83"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -1915,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="53"/>
-      <c r="E35" s="75"/>
+      <c r="E35" s="83"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
@@ -1930,7 +1948,7 @@
       <c r="D36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -1943,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="53"/>
-      <c r="E37" s="75"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
@@ -1956,18 +1974,18 @@
         <v>43</v>
       </c>
       <c r="D38" s="64"/>
-      <c r="E38" s="75"/>
+      <c r="E38" s="83"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>3</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -1980,7 +1998,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="58"/>
-      <c r="E40" s="77" t="s">
+      <c r="E40" s="70" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1995,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="E41" s="77"/>
+      <c r="E41" s="70"/>
     </row>
     <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
@@ -2008,18 +2026,18 @@
         <v>43</v>
       </c>
       <c r="D42" s="60"/>
-      <c r="E42" s="78"/>
+      <c r="E42" s="71"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>4</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2033,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="58"/>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="74" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2048,7 +2066,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="59"/>
-      <c r="E45" s="82"/>
+      <c r="E45" s="75"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
@@ -2061,7 +2079,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="59"/>
-      <c r="E46" s="82"/>
+      <c r="E46" s="75"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
@@ -2074,7 +2092,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="59"/>
-      <c r="E47" s="82"/>
+      <c r="E47" s="75"/>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
@@ -2087,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="59"/>
-      <c r="E48" s="82"/>
+      <c r="E48" s="75"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
@@ -2100,18 +2118,18 @@
         <v>43</v>
       </c>
       <c r="D49" s="60"/>
-      <c r="E49" s="83"/>
+      <c r="E49" s="76"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="84"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="77"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
@@ -2124,7 +2142,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="58"/>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="74" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2141,7 +2159,7 @@
       <c r="D52" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="82"/>
+      <c r="E52" s="75"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
@@ -2154,7 +2172,7 @@
         <v>43</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="82"/>
+      <c r="E53" s="75"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
@@ -2167,7 +2185,7 @@
         <v>43</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="82"/>
+      <c r="E54" s="75"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
@@ -2180,7 +2198,7 @@
         <v>43</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="82"/>
+      <c r="E55" s="75"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
@@ -2193,7 +2211,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="82"/>
+      <c r="E56" s="75"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
@@ -2206,7 +2224,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="59"/>
-      <c r="E57" s="82"/>
+      <c r="E57" s="75"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
@@ -2219,7 +2237,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="59"/>
-      <c r="E58" s="82"/>
+      <c r="E58" s="75"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
@@ -2232,7 +2250,7 @@
         <v>43</v>
       </c>
       <c r="D59" s="59"/>
-      <c r="E59" s="82"/>
+      <c r="E59" s="75"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
@@ -2245,7 +2263,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="59"/>
-      <c r="E60" s="82"/>
+      <c r="E60" s="75"/>
     </row>
     <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
@@ -2258,7 +2276,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="59"/>
-      <c r="E61" s="82"/>
+      <c r="E61" s="75"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
@@ -2271,18 +2289,18 @@
         <v>43</v>
       </c>
       <c r="D62" s="60"/>
-      <c r="E62" s="83"/>
+      <c r="E62" s="76"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>6</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="84"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="77"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -2295,7 +2313,7 @@
         <v>43</v>
       </c>
       <c r="D64" s="58"/>
-      <c r="E64" s="81" t="s">
+      <c r="E64" s="74" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2310,7 +2328,7 @@
         <v>43</v>
       </c>
       <c r="D65" s="59"/>
-      <c r="E65" s="82"/>
+      <c r="E65" s="75"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
@@ -2323,7 +2341,7 @@
         <v>43</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="82"/>
+      <c r="E66" s="75"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
@@ -2338,7 +2356,7 @@
       <c r="D67" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="82"/>
+      <c r="E67" s="75"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
@@ -2351,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="D68" s="59"/>
-      <c r="E68" s="82"/>
+      <c r="E68" s="75"/>
     </row>
     <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
@@ -2364,18 +2382,18 @@
         <v>43</v>
       </c>
       <c r="D69" s="60"/>
-      <c r="E69" s="83"/>
+      <c r="E69" s="76"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>7</v>
       </c>
-      <c r="B70" s="80" t="s">
+      <c r="B70" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="84"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="77"/>
     </row>
     <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -2396,12 +2414,12 @@
       <c r="A72" s="30">
         <v>8</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="84"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="77"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -2414,7 +2432,7 @@
         <v>43</v>
       </c>
       <c r="D73" s="58"/>
-      <c r="E73" s="81" t="s">
+      <c r="E73" s="74" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2429,7 +2447,7 @@
         <v>43</v>
       </c>
       <c r="D74" s="59"/>
-      <c r="E74" s="82"/>
+      <c r="E74" s="75"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
@@ -2442,7 +2460,7 @@
         <v>43</v>
       </c>
       <c r="D75" s="59"/>
-      <c r="E75" s="82"/>
+      <c r="E75" s="75"/>
     </row>
     <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2455,10 +2473,15 @@
         <v>43</v>
       </c>
       <c r="D76" s="60"/>
-      <c r="E76" s="83"/>
+      <c r="E76" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="E44:E49"/>
@@ -2469,11 +2492,6 @@
     <mergeCell ref="E64:E69"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B72:E72"/>
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76">
@@ -2529,57 +2547,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2589,12 +2607,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2604,72 +2637,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Mobile_checklist.xlsx
+++ b/Mobile_checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9165" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19710" windowHeight="9165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General checklist" sheetId="1" r:id="rId1"/>
@@ -361,30 +361,12 @@
     <t>7. Наявність смужки "Dock-панелі" знизу екрану при відкритому застосунку</t>
   </si>
   <si>
-    <t>3. Селектор вибору дат реалізований у вигляді прокручування барабану</t>
-  </si>
-  <si>
     <t>3. Селектор вибору дат реалізований в вигляді класичного календаря з розташуванням на ньому всіх дат поточного місяца, назвою місяця і заголовком зверху в форматі "день/місяць/рік". Повинна бути можливість вводу дати з допомогою Input Field-а</t>
   </si>
   <si>
-    <t>2. Перевірка наявності панелі Android Navigation Bar внизу екрана</t>
-  </si>
-  <si>
-    <t>4. Кнопка заклику до дії розташована в нижньому правому куті над панелей навігації.</t>
-  </si>
-  <si>
-    <t>5. Текст на кнопках написаний у верхньому регістрі</t>
-  </si>
-  <si>
     <t>6. Написи виконані шрифтом Roboto — системним шрифтом в Android (або шрифтом Noto, якщо мова не підтримує Roboto)</t>
   </si>
   <si>
-    <t>1. Одиниці виміру розмірів в Android — dp</t>
-  </si>
-  <si>
-    <t>1. Одиниці виміру розмірів в iOS — pt</t>
-  </si>
-  <si>
     <t>5. Написи виконані шрифтом San Francisco — системним шрифтом в iOS</t>
   </si>
   <si>
@@ -434,6 +416,24 @@
   </si>
   <si>
     <t>14. Верхньорівнева навігація відбувається за допомогою Navigation Drawer через бургер-меню</t>
+  </si>
+  <si>
+    <t>3. Селектор вибору дат реалізований у вигляді прокручування барабану, без можливості самостійного вводу</t>
+  </si>
+  <si>
+    <t>2. Перевірка наявності нативної панелі Android Navigation Bar внизу екрана</t>
+  </si>
+  <si>
+    <t>4. Кнопка заклику до дії розташована в нижньому правому куті над панелею навігації.</t>
+  </si>
+  <si>
+    <t>5. Текст на кнопках написаний виключно у верхньому регістрі</t>
+  </si>
+  <si>
+    <t>1. Одиниці виміру розмірів в Android — dp (dip — піксель, що не залежить від щільності)</t>
+  </si>
+  <si>
+    <t>1. Одиниці виміру розмірів в iOS — pt (point)</t>
   </si>
 </sst>
 </file>
@@ -1087,6 +1087,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,27 +1130,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1480,12 +1480,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="52"/>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="70" t="s">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -1519,7 +1519,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="53"/>
-      <c r="E4" s="79"/>
+      <c r="E4" s="71"/>
       <c r="AB4" t="s">
         <v>44</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="53"/>
-      <c r="E5" s="79"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -1548,7 +1548,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="54"/>
-      <c r="E6" s="79"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1561,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="79"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1574,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="53"/>
-      <c r="E8" s="79"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -1589,7 +1589,7 @@
       <c r="D9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
@@ -1602,7 +1602,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="79"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -1615,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="53"/>
-      <c r="E11" s="79"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1628,7 +1628,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="53"/>
-      <c r="E12" s="79"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -1641,7 +1641,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="53"/>
-      <c r="E13" s="79"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -1656,7 +1656,7 @@
       <c r="D14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="79"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -1669,7 +1669,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="63"/>
-      <c r="E15" s="79"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -1682,7 +1682,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="63"/>
-      <c r="E16" s="79"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -1695,7 +1695,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="54"/>
-      <c r="E17" s="79"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -1708,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="53"/>
-      <c r="E18" s="79"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -1721,7 +1721,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="53"/>
-      <c r="E19" s="79"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -1734,7 +1734,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53"/>
-      <c r="E20" s="79"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -1747,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="79"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
@@ -1760,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="63"/>
-      <c r="E22" s="79"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
@@ -1773,7 +1773,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="54"/>
-      <c r="E23" s="79"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
@@ -1786,7 +1786,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="79"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
@@ -1799,7 +1799,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="53"/>
-      <c r="E25" s="79"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
@@ -1814,7 +1814,7 @@
       <c r="D26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="79"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
@@ -1827,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="79"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
@@ -1842,7 +1842,7 @@
       <c r="D28" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
@@ -1855,7 +1855,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="53"/>
-      <c r="E29" s="79"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
@@ -1868,7 +1868,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="79"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
@@ -1881,18 +1881,18 @@
         <v>43</v>
       </c>
       <c r="D31" s="56"/>
-      <c r="E31" s="80"/>
+      <c r="E31" s="72"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
@@ -1905,7 +1905,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="74" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="53"/>
-      <c r="E34" s="83"/>
+      <c r="E34" s="75"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -1933,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="53"/>
-      <c r="E35" s="83"/>
+      <c r="E35" s="75"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
@@ -1948,7 +1948,7 @@
       <c r="D36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="75"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -1961,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="53"/>
-      <c r="E37" s="83"/>
+      <c r="E37" s="75"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
@@ -1974,18 +1974,18 @@
         <v>43</v>
       </c>
       <c r="D38" s="64"/>
-      <c r="E38" s="83"/>
+      <c r="E38" s="75"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>3</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -1998,7 +1998,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="58"/>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="77" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="E41" s="70"/>
+      <c r="E41" s="77"/>
     </row>
     <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
@@ -2026,18 +2026,18 @@
         <v>43</v>
       </c>
       <c r="D42" s="60"/>
-      <c r="E42" s="71"/>
+      <c r="E42" s="78"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>4</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="58"/>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="81" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="59"/>
-      <c r="E45" s="75"/>
+      <c r="E45" s="82"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
@@ -2079,7 +2079,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="59"/>
-      <c r="E46" s="75"/>
+      <c r="E46" s="82"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
@@ -2092,7 +2092,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="59"/>
-      <c r="E47" s="75"/>
+      <c r="E47" s="82"/>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
@@ -2105,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="59"/>
-      <c r="E48" s="75"/>
+      <c r="E48" s="82"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
@@ -2118,18 +2118,18 @@
         <v>43</v>
       </c>
       <c r="D49" s="60"/>
-      <c r="E49" s="76"/>
+      <c r="E49" s="83"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="77"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
@@ -2142,7 +2142,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="58"/>
-      <c r="E51" s="74" t="s">
+      <c r="E51" s="81" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       <c r="D52" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="75"/>
+      <c r="E52" s="82"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
@@ -2172,7 +2172,7 @@
         <v>43</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="75"/>
+      <c r="E53" s="82"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
@@ -2185,7 +2185,7 @@
         <v>43</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="75"/>
+      <c r="E54" s="82"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
@@ -2198,7 +2198,7 @@
         <v>43</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="75"/>
+      <c r="E55" s="82"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
@@ -2211,7 +2211,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="75"/>
+      <c r="E56" s="82"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
@@ -2224,7 +2224,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="59"/>
-      <c r="E57" s="75"/>
+      <c r="E57" s="82"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
@@ -2237,7 +2237,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="59"/>
-      <c r="E58" s="75"/>
+      <c r="E58" s="82"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
@@ -2250,7 +2250,7 @@
         <v>43</v>
       </c>
       <c r="D59" s="59"/>
-      <c r="E59" s="75"/>
+      <c r="E59" s="82"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
@@ -2263,7 +2263,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="59"/>
-      <c r="E60" s="75"/>
+      <c r="E60" s="82"/>
     </row>
     <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
@@ -2276,7 +2276,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="59"/>
-      <c r="E61" s="75"/>
+      <c r="E61" s="82"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
@@ -2289,18 +2289,18 @@
         <v>43</v>
       </c>
       <c r="D62" s="60"/>
-      <c r="E62" s="76"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>6</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="77"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="84"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -2313,7 +2313,7 @@
         <v>43</v>
       </c>
       <c r="D64" s="58"/>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>43</v>
       </c>
       <c r="D65" s="59"/>
-      <c r="E65" s="75"/>
+      <c r="E65" s="82"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
@@ -2341,7 +2341,7 @@
         <v>43</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="75"/>
+      <c r="E66" s="82"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
@@ -2356,7 +2356,7 @@
       <c r="D67" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="75"/>
+      <c r="E67" s="82"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
@@ -2369,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="D68" s="59"/>
-      <c r="E68" s="75"/>
+      <c r="E68" s="82"/>
     </row>
     <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
@@ -2382,18 +2382,18 @@
         <v>43</v>
       </c>
       <c r="D69" s="60"/>
-      <c r="E69" s="76"/>
+      <c r="E69" s="83"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>7</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="77"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="84"/>
     </row>
     <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -2414,12 +2414,12 @@
       <c r="A72" s="30">
         <v>8</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="77"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="84"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -2432,7 +2432,7 @@
         <v>43</v>
       </c>
       <c r="D73" s="58"/>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="81" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         <v>43</v>
       </c>
       <c r="D74" s="59"/>
-      <c r="E74" s="75"/>
+      <c r="E74" s="82"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
@@ -2460,7 +2460,7 @@
         <v>43</v>
       </c>
       <c r="D75" s="59"/>
-      <c r="E75" s="75"/>
+      <c r="E75" s="82"/>
     </row>
     <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2473,15 +2473,10 @@
         <v>43</v>
       </c>
       <c r="D76" s="60"/>
-      <c r="E76" s="76"/>
+      <c r="E76" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="E44:E49"/>
@@ -2492,6 +2487,11 @@
     <mergeCell ref="E64:E69"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B72:E72"/>
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76">
@@ -2549,15 +2549,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2577,7 +2577,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2592,42 +2592,42 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2639,40 +2639,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2682,42 +2682,42 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Mobile_checklist.xlsx
+++ b/Mobile_checklist.xlsx
@@ -1087,6 +1087,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1106,30 +1130,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1480,12 +1480,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="52"/>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="78" t="s">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -1519,7 +1519,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="53"/>
-      <c r="E4" s="71"/>
+      <c r="E4" s="79"/>
       <c r="AB4" t="s">
         <v>44</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="53"/>
-      <c r="E5" s="71"/>
+      <c r="E5" s="79"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -1548,7 +1548,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="54"/>
-      <c r="E6" s="71"/>
+      <c r="E6" s="79"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1561,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="71"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1574,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="53"/>
-      <c r="E8" s="71"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -1589,7 +1589,7 @@
       <c r="D9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="71"/>
+      <c r="E9" s="79"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
@@ -1602,7 +1602,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="79"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -1615,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="53"/>
-      <c r="E11" s="71"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1628,7 +1628,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="53"/>
-      <c r="E12" s="71"/>
+      <c r="E12" s="79"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -1641,7 +1641,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="53"/>
-      <c r="E13" s="71"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -1656,7 +1656,7 @@
       <c r="D14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="71"/>
+      <c r="E14" s="79"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -1669,7 +1669,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="63"/>
-      <c r="E15" s="71"/>
+      <c r="E15" s="79"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -1682,7 +1682,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="63"/>
-      <c r="E16" s="71"/>
+      <c r="E16" s="79"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -1695,7 +1695,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="54"/>
-      <c r="E17" s="71"/>
+      <c r="E17" s="79"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -1708,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="53"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="79"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -1721,7 +1721,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="53"/>
-      <c r="E19" s="71"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -1734,7 +1734,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53"/>
-      <c r="E20" s="71"/>
+      <c r="E20" s="79"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -1747,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="71"/>
+      <c r="E21" s="79"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
@@ -1760,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="63"/>
-      <c r="E22" s="71"/>
+      <c r="E22" s="79"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
@@ -1773,7 +1773,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="54"/>
-      <c r="E23" s="71"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
@@ -1786,7 +1786,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="71"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
@@ -1799,7 +1799,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="53"/>
-      <c r="E25" s="71"/>
+      <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
@@ -1814,7 +1814,7 @@
       <c r="D26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="71"/>
+      <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
@@ -1827,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="71"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
@@ -1842,7 +1842,7 @@
       <c r="D28" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="71"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
@@ -1855,7 +1855,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="53"/>
-      <c r="E29" s="71"/>
+      <c r="E29" s="79"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
@@ -1868,7 +1868,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="71"/>
+      <c r="E30" s="79"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
@@ -1881,18 +1881,18 @@
         <v>43</v>
       </c>
       <c r="D31" s="56"/>
-      <c r="E31" s="72"/>
+      <c r="E31" s="80"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
@@ -1905,7 +1905,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="74" t="s">
+      <c r="E33" s="82" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="53"/>
-      <c r="E34" s="75"/>
+      <c r="E34" s="83"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -1933,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="53"/>
-      <c r="E35" s="75"/>
+      <c r="E35" s="83"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
@@ -1948,7 +1948,7 @@
       <c r="D36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -1961,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="53"/>
-      <c r="E37" s="75"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
@@ -1974,18 +1974,18 @@
         <v>43</v>
       </c>
       <c r="D38" s="64"/>
-      <c r="E38" s="75"/>
+      <c r="E38" s="83"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>3</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -1998,7 +1998,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="58"/>
-      <c r="E40" s="77" t="s">
+      <c r="E40" s="70" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="E41" s="77"/>
+      <c r="E41" s="70"/>
     </row>
     <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
@@ -2026,18 +2026,18 @@
         <v>43</v>
       </c>
       <c r="D42" s="60"/>
-      <c r="E42" s="78"/>
+      <c r="E42" s="71"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>4</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="58"/>
-      <c r="E44" s="81" t="s">
+      <c r="E44" s="74" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="59"/>
-      <c r="E45" s="82"/>
+      <c r="E45" s="75"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
@@ -2079,7 +2079,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="59"/>
-      <c r="E46" s="82"/>
+      <c r="E46" s="75"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
@@ -2092,7 +2092,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="59"/>
-      <c r="E47" s="82"/>
+      <c r="E47" s="75"/>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
@@ -2105,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="59"/>
-      <c r="E48" s="82"/>
+      <c r="E48" s="75"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
@@ -2118,18 +2118,18 @@
         <v>43</v>
       </c>
       <c r="D49" s="60"/>
-      <c r="E49" s="83"/>
+      <c r="E49" s="76"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="84"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="77"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
@@ -2142,7 +2142,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="58"/>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="74" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       <c r="D52" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="82"/>
+      <c r="E52" s="75"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
@@ -2172,7 +2172,7 @@
         <v>43</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="82"/>
+      <c r="E53" s="75"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
@@ -2185,7 +2185,7 @@
         <v>43</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="82"/>
+      <c r="E54" s="75"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
@@ -2198,7 +2198,7 @@
         <v>43</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="82"/>
+      <c r="E55" s="75"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
@@ -2211,7 +2211,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="82"/>
+      <c r="E56" s="75"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
@@ -2224,7 +2224,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="59"/>
-      <c r="E57" s="82"/>
+      <c r="E57" s="75"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
@@ -2237,7 +2237,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="59"/>
-      <c r="E58" s="82"/>
+      <c r="E58" s="75"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
@@ -2250,7 +2250,7 @@
         <v>43</v>
       </c>
       <c r="D59" s="59"/>
-      <c r="E59" s="82"/>
+      <c r="E59" s="75"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
@@ -2263,7 +2263,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="59"/>
-      <c r="E60" s="82"/>
+      <c r="E60" s="75"/>
     </row>
     <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
@@ -2276,7 +2276,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="59"/>
-      <c r="E61" s="82"/>
+      <c r="E61" s="75"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
@@ -2289,18 +2289,18 @@
         <v>43</v>
       </c>
       <c r="D62" s="60"/>
-      <c r="E62" s="83"/>
+      <c r="E62" s="76"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>6</v>
       </c>
-      <c r="B63" s="79" t="s">
+      <c r="B63" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="84"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="77"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -2313,7 +2313,7 @@
         <v>43</v>
       </c>
       <c r="D64" s="58"/>
-      <c r="E64" s="81" t="s">
+      <c r="E64" s="74" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>43</v>
       </c>
       <c r="D65" s="59"/>
-      <c r="E65" s="82"/>
+      <c r="E65" s="75"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
@@ -2341,7 +2341,7 @@
         <v>43</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="82"/>
+      <c r="E66" s="75"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
@@ -2356,7 +2356,7 @@
       <c r="D67" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="82"/>
+      <c r="E67" s="75"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
@@ -2369,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="D68" s="59"/>
-      <c r="E68" s="82"/>
+      <c r="E68" s="75"/>
     </row>
     <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
@@ -2382,18 +2382,18 @@
         <v>43</v>
       </c>
       <c r="D69" s="60"/>
-      <c r="E69" s="83"/>
+      <c r="E69" s="76"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>7</v>
       </c>
-      <c r="B70" s="80" t="s">
+      <c r="B70" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="84"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="77"/>
     </row>
     <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -2414,12 +2414,12 @@
       <c r="A72" s="30">
         <v>8</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="84"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="77"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -2432,7 +2432,7 @@
         <v>43</v>
       </c>
       <c r="D73" s="58"/>
-      <c r="E73" s="81" t="s">
+      <c r="E73" s="74" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         <v>43</v>
       </c>
       <c r="D74" s="59"/>
-      <c r="E74" s="82"/>
+      <c r="E74" s="75"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
@@ -2460,7 +2460,7 @@
         <v>43</v>
       </c>
       <c r="D75" s="59"/>
-      <c r="E75" s="82"/>
+      <c r="E75" s="75"/>
     </row>
     <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2473,10 +2473,15 @@
         <v>43</v>
       </c>
       <c r="D76" s="60"/>
-      <c r="E76" s="83"/>
+      <c r="E76" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="E44:E49"/>
@@ -2487,11 +2492,6 @@
     <mergeCell ref="E64:E69"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B72:E72"/>
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76">
@@ -2547,86 +2547,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A2:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Mobile_checklist.xlsx
+++ b/Mobile_checklist.xlsx
@@ -1087,6 +1087,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1109,27 +1130,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1480,12 +1480,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
       <c r="AB2" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="52"/>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="70" t="s">
         <v>2</v>
       </c>
       <c r="AB3" t="s">
@@ -1519,7 +1519,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="53"/>
-      <c r="E4" s="79"/>
+      <c r="E4" s="71"/>
       <c r="AB4" t="s">
         <v>44</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="53"/>
-      <c r="E5" s="79"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -1548,7 +1548,7 @@
         <v>43</v>
       </c>
       <c r="D6" s="54"/>
-      <c r="E6" s="79"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -1561,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="79"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
@@ -1574,7 +1574,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="53"/>
-      <c r="E8" s="79"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
@@ -1589,7 +1589,7 @@
       <c r="D9" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="79"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
@@ -1602,7 +1602,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="54"/>
-      <c r="E10" s="79"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
@@ -1615,7 +1615,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="53"/>
-      <c r="E11" s="79"/>
+      <c r="E11" s="71"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
@@ -1628,7 +1628,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="53"/>
-      <c r="E12" s="79"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
@@ -1641,7 +1641,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="53"/>
-      <c r="E13" s="79"/>
+      <c r="E13" s="71"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
@@ -1656,7 +1656,7 @@
       <c r="D14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="79"/>
+      <c r="E14" s="71"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -1669,7 +1669,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="63"/>
-      <c r="E15" s="79"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -1682,7 +1682,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="63"/>
-      <c r="E16" s="79"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -1695,7 +1695,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="54"/>
-      <c r="E17" s="79"/>
+      <c r="E17" s="71"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -1708,7 +1708,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="53"/>
-      <c r="E18" s="79"/>
+      <c r="E18" s="71"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -1721,7 +1721,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="53"/>
-      <c r="E19" s="79"/>
+      <c r="E19" s="71"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
@@ -1734,7 +1734,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="53"/>
-      <c r="E20" s="79"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
@@ -1747,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="53"/>
-      <c r="E21" s="79"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
@@ -1760,7 +1760,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="63"/>
-      <c r="E22" s="79"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
@@ -1773,7 +1773,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="54"/>
-      <c r="E23" s="79"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
@@ -1786,7 +1786,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="53"/>
-      <c r="E24" s="79"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
@@ -1799,7 +1799,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="53"/>
-      <c r="E25" s="79"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
@@ -1814,7 +1814,7 @@
       <c r="D26" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="79"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
@@ -1827,7 +1827,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="54"/>
-      <c r="E27" s="79"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
@@ -1842,7 +1842,7 @@
       <c r="D28" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="79"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
@@ -1855,7 +1855,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="53"/>
-      <c r="E29" s="79"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
@@ -1868,7 +1868,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="53"/>
-      <c r="E30" s="79"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
@@ -1881,18 +1881,18 @@
         <v>43</v>
       </c>
       <c r="D31" s="56"/>
-      <c r="E31" s="80"/>
+      <c r="E31" s="72"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
@@ -1905,7 +1905,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="74" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="53"/>
-      <c r="E34" s="83"/>
+      <c r="E34" s="75"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -1933,7 +1933,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="53"/>
-      <c r="E35" s="83"/>
+      <c r="E35" s="75"/>
     </row>
     <row r="36" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
@@ -1948,7 +1948,7 @@
       <c r="D36" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="83"/>
+      <c r="E36" s="75"/>
     </row>
     <row r="37" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -1961,7 +1961,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="53"/>
-      <c r="E37" s="83"/>
+      <c r="E37" s="75"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
@@ -1974,18 +1974,18 @@
         <v>43</v>
       </c>
       <c r="D38" s="64"/>
-      <c r="E38" s="83"/>
+      <c r="E38" s="75"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>3</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
@@ -1998,7 +1998,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="58"/>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="77" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="E41" s="70"/>
+      <c r="E41" s="77"/>
     </row>
     <row r="42" spans="1:6" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
@@ -2026,18 +2026,18 @@
         <v>43</v>
       </c>
       <c r="D42" s="60"/>
-      <c r="E42" s="71"/>
+      <c r="E42" s="78"/>
     </row>
     <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>4</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="58"/>
-      <c r="E44" s="74" t="s">
+      <c r="E44" s="81" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="59"/>
-      <c r="E45" s="75"/>
+      <c r="E45" s="82"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="43">
@@ -2079,7 +2079,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="59"/>
-      <c r="E46" s="75"/>
+      <c r="E46" s="82"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="43">
@@ -2092,7 +2092,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="59"/>
-      <c r="E47" s="75"/>
+      <c r="E47" s="82"/>
     </row>
     <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A48" s="43">
@@ -2105,7 +2105,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="59"/>
-      <c r="E48" s="75"/>
+      <c r="E48" s="82"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
@@ -2118,18 +2118,18 @@
         <v>43</v>
       </c>
       <c r="D49" s="60"/>
-      <c r="E49" s="76"/>
+      <c r="E49" s="83"/>
     </row>
     <row r="50" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="77"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="84"/>
     </row>
     <row r="51" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
@@ -2142,7 +2142,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="58"/>
-      <c r="E51" s="74" t="s">
+      <c r="E51" s="81" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       <c r="D52" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="75"/>
+      <c r="E52" s="82"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="43">
@@ -2172,7 +2172,7 @@
         <v>43</v>
       </c>
       <c r="D53" s="59"/>
-      <c r="E53" s="75"/>
+      <c r="E53" s="82"/>
     </row>
     <row r="54" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A54" s="43">
@@ -2185,7 +2185,7 @@
         <v>43</v>
       </c>
       <c r="D54" s="59"/>
-      <c r="E54" s="75"/>
+      <c r="E54" s="82"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="43">
@@ -2198,7 +2198,7 @@
         <v>43</v>
       </c>
       <c r="D55" s="59"/>
-      <c r="E55" s="75"/>
+      <c r="E55" s="82"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="43">
@@ -2211,7 +2211,7 @@
         <v>43</v>
       </c>
       <c r="D56" s="59"/>
-      <c r="E56" s="75"/>
+      <c r="E56" s="82"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="43">
@@ -2224,7 +2224,7 @@
         <v>43</v>
       </c>
       <c r="D57" s="59"/>
-      <c r="E57" s="75"/>
+      <c r="E57" s="82"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="43">
@@ -2237,7 +2237,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="59"/>
-      <c r="E58" s="75"/>
+      <c r="E58" s="82"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="43">
@@ -2250,7 +2250,7 @@
         <v>43</v>
       </c>
       <c r="D59" s="59"/>
-      <c r="E59" s="75"/>
+      <c r="E59" s="82"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
@@ -2263,7 +2263,7 @@
         <v>43</v>
       </c>
       <c r="D60" s="59"/>
-      <c r="E60" s="75"/>
+      <c r="E60" s="82"/>
     </row>
     <row r="61" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
@@ -2276,7 +2276,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="59"/>
-      <c r="E61" s="75"/>
+      <c r="E61" s="82"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="46">
@@ -2289,18 +2289,18 @@
         <v>43</v>
       </c>
       <c r="D62" s="60"/>
-      <c r="E62" s="76"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>6</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="77"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="84"/>
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
@@ -2313,7 +2313,7 @@
         <v>43</v>
       </c>
       <c r="D64" s="58"/>
-      <c r="E64" s="74" t="s">
+      <c r="E64" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>43</v>
       </c>
       <c r="D65" s="59"/>
-      <c r="E65" s="75"/>
+      <c r="E65" s="82"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="43">
@@ -2341,7 +2341,7 @@
         <v>43</v>
       </c>
       <c r="D66" s="59"/>
-      <c r="E66" s="75"/>
+      <c r="E66" s="82"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="43">
@@ -2356,7 +2356,7 @@
       <c r="D67" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E67" s="75"/>
+      <c r="E67" s="82"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="43">
@@ -2369,7 +2369,7 @@
         <v>43</v>
       </c>
       <c r="D68" s="59"/>
-      <c r="E68" s="75"/>
+      <c r="E68" s="82"/>
     </row>
     <row r="69" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
@@ -2382,18 +2382,18 @@
         <v>43</v>
       </c>
       <c r="D69" s="60"/>
-      <c r="E69" s="76"/>
+      <c r="E69" s="83"/>
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>7</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="73"/>
-      <c r="E70" s="77"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="84"/>
     </row>
     <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="48">
@@ -2414,12 +2414,12 @@
       <c r="A72" s="30">
         <v>8</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="77"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="84"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
@@ -2432,7 +2432,7 @@
         <v>43</v>
       </c>
       <c r="D73" s="58"/>
-      <c r="E73" s="74" t="s">
+      <c r="E73" s="81" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         <v>43</v>
       </c>
       <c r="D74" s="59"/>
-      <c r="E74" s="75"/>
+      <c r="E74" s="82"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43">
@@ -2460,7 +2460,7 @@
         <v>43</v>
       </c>
       <c r="D75" s="59"/>
-      <c r="E75" s="75"/>
+      <c r="E75" s="82"/>
     </row>
     <row r="76" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44">
@@ -2473,15 +2473,10 @@
         <v>43</v>
       </c>
       <c r="D76" s="60"/>
-      <c r="E76" s="76"/>
+      <c r="E76" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E3:E31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="E44:E49"/>
@@ -2492,6 +2487,11 @@
     <mergeCell ref="E64:E69"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B72:E72"/>
+    <mergeCell ref="E3:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31 C33:C38 C40:C42 C44:C49 C51:C62 C64:C69 C71 C73:C76">
@@ -2547,86 +2547,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A16"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
         <v>122</v>
       </c>
     </row>
